--- a/test_workbook/work3_test/work3-2-22/エビデンス/BOPエラー/LTOutsourcingError.xlsx
+++ b/test_workbook/work3_test/work3-2-22/エビデンス/BOPエラー/LTOutsourcingError.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0ADF577-BC25-4AAF-B9E3-40A9AF459549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4C06EAC-6444-4C21-8A49-CA2F2901D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41A11E99-F20C-4B39-8CCB-8FF3115F2C13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9FDC8888-620D-4DDE-9971-F422E1EB15C8}"/>
   </bookViews>
   <sheets>
     <sheet name="LTOutsourcingError" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ファイル名</t>
   </si>
@@ -48,18 +48,6 @@
   </si>
   <si>
     <t>列</t>
-  </si>
-  <si>
-    <t>製造品目詳細一覧_work.xlsx</t>
-  </si>
-  <si>
-    <t>E/F</t>
-  </si>
-  <si>
-    <t>外注品ですが製造LTまたは購入LTが未編集、もしくは製造LTと購入LTがともに"0"です（製造LT="", 購入LT="", 品目CD="P1003", 品名="部品C", 内部名="$D_PS_OutsourcingPart", 製造場所CD="LOC3")</t>
-  </si>
-  <si>
-    <t>外注品ですが製造LTまたは購入LTが未編集、もしくは製造LTと購入LTがともに"0"です（製造LT="", 購入LT="", 品目CD="P1003", 品名="部品C", 内部名="$D_PS_OutsourcingPart", 製造場所CD="LOC4")</t>
   </si>
 </sst>
 </file>
@@ -442,17 +430,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F26D9-E5B1-4197-8A7B-EDF05914235A}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF956633-FD29-4C84-9744-92B719CDB08B}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="190.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -469,34 +456,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
